--- a/BDD/BDD_Constante.xlsx
+++ b/BDD/BDD_Constante.xlsx
@@ -1,44 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moi\Documents\GitHub\WDPII\BDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E022F-47B6-4EA5-A821-1B39BB29DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -60,11 +47,17 @@
   <si>
     <t>2.128e-06 x - 0.0005118 x + 0.04401 x - 1.56 x + 118.4</t>
   </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,47 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Quartier mal fréquenté"/>
-      <sheetName val="Quartier aisé"/>
-      <sheetName val="Chantier"/>
-      <sheetName val="Déménagement"/>
-      <sheetName val="Espace verts"/>
-      <sheetName val="Discothèque"/>
-      <sheetName val="Festival"/>
-      <sheetName val="Groupe scolaire"/>
-      <sheetName val="Groupe scolaire + espace vert"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Volume</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K106"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,14 +443,18 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44927</v>
       </c>
@@ -512,16 +468,21 @@
       <c r="E2" s="1">
         <v>118.4</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>44934</v>
       </c>
@@ -538,15 +499,15 @@
         <v>116.88350029999999</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>44941</v>
       </c>
@@ -563,13 +524,13 @@
         <v>115.4519796</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>44948</v>
       </c>
@@ -592,7 +553,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>44955</v>
       </c>
@@ -615,7 +576,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>44962</v>
       </c>
@@ -638,7 +599,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>44969</v>
       </c>
@@ -661,7 +622,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>44976</v>
       </c>
@@ -684,7 +645,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>44983</v>
       </c>
@@ -707,7 +668,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>44990</v>
       </c>
@@ -730,7 +691,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>44997</v>
       </c>
@@ -753,7 +714,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45004</v>
       </c>
@@ -776,7 +737,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45011</v>
       </c>
@@ -799,7 +760,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45018</v>
       </c>
@@ -822,7 +783,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45025</v>
       </c>
@@ -845,7 +806,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45032</v>
       </c>
@@ -868,7 +829,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45039</v>
       </c>
@@ -891,7 +852,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45046</v>
       </c>
@@ -914,7 +875,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45053</v>
       </c>
@@ -937,7 +898,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45060</v>
       </c>
@@ -960,7 +921,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45067</v>
       </c>
@@ -983,7 +944,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45074</v>
       </c>
@@ -1006,7 +967,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>45081</v>
       </c>
@@ -1029,7 +990,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>45088</v>
       </c>
@@ -1052,7 +1013,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>45095</v>
       </c>
@@ -1075,7 +1036,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>45102</v>
       </c>
@@ -1098,7 +1059,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>45109</v>
       </c>
@@ -1121,7 +1082,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>45116</v>
       </c>
@@ -1144,7 +1105,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>45123</v>
       </c>
@@ -1167,7 +1128,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>45130</v>
       </c>
@@ -1190,7 +1151,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>45137</v>
       </c>
@@ -1213,7 +1174,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>45144</v>
       </c>
@@ -1236,7 +1197,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>45151</v>
       </c>
@@ -1259,7 +1220,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>45158</v>
       </c>
@@ -1282,7 +1243,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>45165</v>
       </c>
@@ -1305,7 +1266,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>45172</v>
       </c>
@@ -1328,7 +1289,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>45179</v>
       </c>
@@ -1351,7 +1312,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>45186</v>
       </c>
@@ -1374,7 +1335,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>45193</v>
       </c>
@@ -1397,7 +1358,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>45200</v>
       </c>
@@ -1420,7 +1381,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>45207</v>
       </c>
@@ -1443,7 +1404,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>45214</v>
       </c>
@@ -1466,7 +1427,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>45221</v>
       </c>
@@ -1489,7 +1450,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>45228</v>
       </c>
@@ -1512,7 +1473,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45235</v>
       </c>
@@ -1535,7 +1496,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45242</v>
       </c>
@@ -1558,7 +1519,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>45249</v>
       </c>
@@ -1581,7 +1542,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>45256</v>
       </c>
@@ -1604,7 +1565,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>45263</v>
       </c>
@@ -1627,7 +1588,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>45270</v>
       </c>
@@ -1650,7 +1611,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>45277</v>
       </c>
@@ -1673,7 +1634,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>45284</v>
       </c>
@@ -1696,7 +1657,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>45291</v>
       </c>
@@ -1719,7 +1680,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>45298</v>
       </c>
@@ -1742,7 +1703,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>45305</v>
       </c>
@@ -1765,7 +1726,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>45312</v>
       </c>
@@ -1788,7 +1749,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>45319</v>
       </c>
@@ -1811,7 +1772,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>45326</v>
       </c>
@@ -1834,7 +1795,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>45333</v>
       </c>
@@ -1857,7 +1818,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>45340</v>
       </c>
@@ -1880,7 +1841,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>45347</v>
       </c>
@@ -1903,7 +1864,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>45354</v>
       </c>
@@ -1926,7 +1887,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>45361</v>
       </c>
@@ -1949,7 +1910,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>45368</v>
       </c>
@@ -1972,7 +1933,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>45375</v>
       </c>
@@ -1995,7 +1956,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>45382</v>
       </c>
@@ -2018,7 +1979,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>45389</v>
       </c>
@@ -2041,7 +2002,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>45396</v>
       </c>
@@ -2064,7 +2025,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>45403</v>
       </c>
@@ -2087,7 +2048,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>45410</v>
       </c>
@@ -2110,7 +2071,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>45417</v>
       </c>
@@ -2133,7 +2094,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>45424</v>
       </c>
@@ -2156,7 +2117,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>45431</v>
       </c>
@@ -2179,7 +2140,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>45438</v>
       </c>
@@ -2202,7 +2163,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>45445</v>
       </c>
@@ -2225,7 +2186,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>45452</v>
       </c>
@@ -2248,7 +2209,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>45459</v>
       </c>
@@ -2271,7 +2232,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>45466</v>
       </c>
@@ -2294,7 +2255,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>45473</v>
       </c>
@@ -2317,7 +2278,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>45480</v>
       </c>
@@ -2340,7 +2301,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>45487</v>
       </c>
@@ -2363,7 +2324,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>45494</v>
       </c>
@@ -2386,7 +2347,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>45501</v>
       </c>
@@ -2409,7 +2370,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>45508</v>
       </c>
@@ -2432,7 +2393,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>45515</v>
       </c>
@@ -2455,7 +2416,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>45522</v>
       </c>
@@ -2478,7 +2439,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>45529</v>
       </c>
@@ -2501,7 +2462,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>45536</v>
       </c>
@@ -2524,7 +2485,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>45543</v>
       </c>
@@ -2547,7 +2508,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>45550</v>
       </c>
@@ -2570,7 +2531,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>45557</v>
       </c>
@@ -2593,7 +2554,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>45564</v>
       </c>
@@ -2616,7 +2577,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>45571</v>
       </c>
@@ -2639,7 +2600,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>45578</v>
       </c>
@@ -2662,7 +2623,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>45585</v>
       </c>
@@ -2685,7 +2646,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>45592</v>
       </c>
@@ -2708,7 +2669,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>45599</v>
       </c>
@@ -2731,7 +2692,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>45606</v>
       </c>
@@ -2754,7 +2715,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>45613</v>
       </c>
@@ -2777,7 +2738,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>45620</v>
       </c>
@@ -2800,7 +2761,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>45627</v>
       </c>
@@ -2823,7 +2784,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>45634</v>
       </c>
@@ -2846,7 +2807,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>45641</v>
       </c>
@@ -2869,7 +2830,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>45648</v>
       </c>
@@ -2892,7 +2853,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>45655</v>
       </c>

--- a/BDD/BDD_Constante.xlsx
+++ b/BDD/BDD_Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlan\Documents\GitHub\WDPII\BDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58E022F-47B6-4EA5-A821-1B39BB29DB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C81EC5-3195-42E7-B347-EC05F7658012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5660" yWindow="340" windowWidth="13330" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,7 +498,12 @@
       <c r="E3" s="1">
         <v>116.88350029999999</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
@@ -523,7 +528,12 @@
       <c r="E4" s="1">
         <v>115.4519796</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -546,8 +556,12 @@
       <c r="E5" s="1">
         <v>114.1024438</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -569,8 +583,12 @@
       <c r="E6" s="1">
         <v>112.8319496</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -592,8 +610,12 @@
       <c r="E7" s="1">
         <v>111.63760499999999</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -615,8 +637,12 @@
       <c r="E8" s="1">
         <v>110.5165691</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -638,8 +664,12 @@
       <c r="E9" s="1">
         <v>109.4660519</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -661,8 +691,12 @@
       <c r="E10" s="1">
         <v>108.48331469999999</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -684,8 +718,12 @@
       <c r="E11" s="1">
         <v>107.56566960000001</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -707,8 +745,12 @@
       <c r="E12" s="1">
         <v>106.71048</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -730,8 +772,12 @@
       <c r="E13" s="1">
         <v>105.9151602</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -753,8 +799,12 @@
       <c r="E14" s="1">
         <v>105.1771758</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -776,8 +826,12 @@
       <c r="E15" s="1">
         <v>104.49404319999999</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -799,8 +853,12 @@
       <c r="E16" s="1">
         <v>103.86333</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -822,8 +880,12 @@
       <c r="E17" s="1">
         <v>103.28265500000001</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -845,8 +907,12 @@
       <c r="E18" s="1">
         <v>102.7496878</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -868,8 +934,12 @@
       <c r="E19" s="1">
         <v>102.2621493</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -891,8 +961,12 @@
       <c r="E20" s="1">
         <v>101.8178113</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -914,8 +988,12 @@
       <c r="E21" s="1">
         <v>101.4144969</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -937,8 +1015,12 @@
       <c r="E22" s="1">
         <v>101.05007999999999</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -960,8 +1042,12 @@
       <c r="E23" s="1">
         <v>100.7224858</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -983,8 +1069,12 @@
       <c r="E24" s="1">
         <v>100.4296904</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1006,8 +1096,12 @@
       <c r="E25" s="1">
         <v>100.169721</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1029,8 +1123,12 @@
       <c r="E26" s="1">
         <v>99.940656129999994</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1052,8 +1150,12 @@
       <c r="E27" s="1">
         <v>99.740624999999994</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1075,8 +1177,12 @@
       <c r="E28" s="1">
         <v>99.567808130000003</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1098,8 +1204,12 @@
       <c r="E29" s="1">
         <v>99.420437050000004</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1121,8 +1231,12 @@
       <c r="E30" s="1">
         <v>99.296794370000001</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1144,8 +1258,12 @@
       <c r="E31" s="1">
         <v>99.195213769999995</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1167,8 +1285,12 @@
       <c r="E32" s="1">
         <v>99.114080000000001</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="F32" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1190,8 +1312,12 @@
       <c r="E33" s="1">
         <v>99.051828889999996</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="F33" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1213,8 +1339,12 @@
       <c r="E34" s="1">
         <v>99.006947330000003</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="F34" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1236,8 +1366,12 @@
       <c r="E35" s="1">
         <v>98.977973289999994</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="F35" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1259,8 +1393,12 @@
       <c r="E36" s="1">
         <v>98.963495809999998</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="F36" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1282,8 +1420,12 @@
       <c r="E37" s="1">
         <v>98.962154999999996</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1305,8 +1447,12 @@
       <c r="E38" s="1">
         <v>98.972642050000005</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1328,8 +1474,12 @@
       <c r="E39" s="1">
         <v>98.993699210000003</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1351,8 +1501,12 @@
       <c r="E40" s="1">
         <v>99.024119810000002</v>
       </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+      <c r="F40" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1374,8 +1528,12 @@
       <c r="E41" s="1">
         <v>99.062748249999999</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+      <c r="F41" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1397,8 +1555,12 @@
       <c r="E42" s="1">
         <v>99.10848</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="F42" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1420,8 +1582,12 @@
       <c r="E43" s="1">
         <v>99.160261610000006</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="F43" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1443,8 +1609,12 @@
       <c r="E44" s="1">
         <v>99.217090690000006</v>
       </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="F44" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1466,8 +1636,12 @@
       <c r="E45" s="1">
         <v>99.278015929999995</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="F45" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1489,8 +1663,12 @@
       <c r="E46" s="1">
         <v>99.342137089999994</v>
       </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="F46" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1512,8 +1690,12 @@
       <c r="E47" s="1">
         <v>99.408604999999994</v>
       </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="F47" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1535,8 +1717,12 @@
       <c r="E48" s="1">
         <v>99.476621570000006</v>
       </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="F48" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1558,8 +1744,12 @@
       <c r="E49" s="1">
         <v>99.545439770000002</v>
       </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="F49" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1581,8 +1771,12 @@
       <c r="E50" s="1">
         <v>99.614363650000001</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="F50" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1604,8 +1798,12 @@
       <c r="E51" s="1">
         <v>99.682748329999995</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+      <c r="F51" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1627,8 +1825,12 @@
       <c r="E52" s="1">
         <v>99.75</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -1650,8 +1852,12 @@
       <c r="E53" s="1">
         <v>99.815575929999994</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -1673,8 +1879,12 @@
       <c r="E54" s="1">
         <v>99.878984450000004</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="F54" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -1696,8 +1906,12 @@
       <c r="E55" s="1">
         <v>99.939784970000005</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="F55" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -1719,8 +1933,12 @@
       <c r="E56" s="1">
         <v>99.997587969999998</v>
       </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="F56" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -1742,8 +1960,12 @@
       <c r="E57" s="1">
         <v>100.052055</v>
       </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="F57" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -1765,8 +1987,12 @@
       <c r="E58" s="1">
         <v>100.1028987</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="F58" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -1788,8 +2014,12 @@
       <c r="E59" s="1">
         <v>100.14988270000001</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="F59" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -1811,8 +2041,12 @@
       <c r="E60" s="1">
         <v>100.1928219</v>
       </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="F60" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -1834,8 +2068,12 @@
       <c r="E61" s="1">
         <v>100.231582</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="F61" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -1857,8 +2095,12 @@
       <c r="E62" s="1">
         <v>100.26608</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="F62" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -1880,8 +2122,12 @@
       <c r="E63" s="1">
         <v>100.2962838</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="F63" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -1903,8 +2149,12 @@
       <c r="E64" s="1">
         <v>100.3222126</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="F64" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -1926,8 +2176,12 @@
       <c r="E65" s="1">
         <v>100.3439364</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="F65" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -1949,8 +2203,12 @@
       <c r="E66" s="1">
         <v>100.3615764</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="F66" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -1972,8 +2230,12 @@
       <c r="E67" s="1">
         <v>100.375305</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="F67" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -1995,8 +2257,12 @@
       <c r="E68" s="1">
         <v>100.38534540000001</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="F68" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2018,8 +2284,12 @@
       <c r="E69" s="1">
         <v>100.3919721</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="F69" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2041,8 +2311,12 @@
       <c r="E70" s="1">
         <v>100.3955105</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="F70" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2064,8 +2338,12 @@
       <c r="E71" s="1">
         <v>100.3963373</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="F71" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2087,8 +2365,12 @@
       <c r="E72" s="1">
         <v>100.39488</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2110,8 +2392,12 @@
       <c r="E73" s="1">
         <v>100.3916174</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2133,8 +2419,12 @@
       <c r="E74" s="1">
         <v>100.3870792</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2156,8 +2446,12 @@
       <c r="E75" s="1">
         <v>100.3818462</v>
       </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="F75" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2179,8 +2473,12 @@
       <c r="E76" s="1">
         <v>100.37655049999999</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+      <c r="F76" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2202,8 +2500,12 @@
       <c r="E77" s="1">
         <v>100.371875</v>
       </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="F77" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2225,8 +2527,12 @@
       <c r="E78" s="1">
         <v>100.36855370000001</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
+      <c r="F78" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -2248,8 +2554,12 @@
       <c r="E79" s="1">
         <v>100.3673718</v>
       </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
+      <c r="F79" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -2271,8 +2581,12 @@
       <c r="E80" s="1">
         <v>100.3691656</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
+      <c r="F80" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -2294,8 +2608,12 @@
       <c r="E81" s="1">
         <v>100.3748222</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
+      <c r="F81" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2317,8 +2635,12 @@
       <c r="E82" s="1">
         <v>100.38527999999999</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
+      <c r="F82" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2340,8 +2662,12 @@
       <c r="E83" s="1">
         <v>100.4015285</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
+      <c r="F83" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -2363,8 +2689,12 @@
       <c r="E84" s="1">
         <v>100.4246081</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
+      <c r="F84" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2386,8 +2716,12 @@
       <c r="E85" s="1">
         <v>100.45561050000001</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+      <c r="F85" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -2409,8 +2743,12 @@
       <c r="E86" s="1">
         <v>100.4956782</v>
       </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
+      <c r="F86" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -2432,8 +2770,12 @@
       <c r="E87" s="1">
         <v>100.54600499999999</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -2455,8 +2797,12 @@
       <c r="E88" s="1">
         <v>100.6078356</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -2478,8 +2824,12 @@
       <c r="E89" s="1">
         <v>100.68246600000001</v>
       </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+      <c r="F89" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2501,8 +2851,12 @@
       <c r="E90" s="1">
         <v>100.771243</v>
       </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+      <c r="F90" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -2524,8 +2878,12 @@
       <c r="E91" s="1">
         <v>100.8755646</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+      <c r="F91" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -2547,8 +2905,12 @@
       <c r="E92" s="1">
         <v>100.99688</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="F92" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -2570,8 +2932,12 @@
       <c r="E93" s="1">
         <v>101.13668920000001</v>
       </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+      <c r="F93" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -2593,8 +2959,12 @@
       <c r="E94" s="1">
         <v>101.2965435</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+      <c r="F94" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -2616,8 +2986,12 @@
       <c r="E95" s="1">
         <v>101.4780451</v>
       </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
+      <c r="F95" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2639,8 +3013,12 @@
       <c r="E96" s="1">
         <v>101.68284749999999</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
+      <c r="F96" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -2662,8 +3040,12 @@
       <c r="E97" s="1">
         <v>101.912655</v>
       </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+      <c r="F97" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -2685,8 +3067,12 @@
       <c r="E98" s="1">
         <v>102.1692232</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+      <c r="F98" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -2708,8 +3094,12 @@
       <c r="E99" s="1">
         <v>102.45435860000001</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+      <c r="F99" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -2731,8 +3121,12 @@
       <c r="E100" s="1">
         <v>102.7699188</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+      <c r="F100" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -2754,8 +3148,12 @@
       <c r="E101" s="1">
         <v>103.1178127</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
+      <c r="F101" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G101" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -2777,8 +3175,12 @@
       <c r="E102" s="1">
         <v>103.5</v>
       </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
+      <c r="F102" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G102" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -2800,8 +3202,12 @@
       <c r="E103" s="1">
         <v>103.9184915</v>
       </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
+      <c r="F103" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G103" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -2823,8 +3229,12 @@
       <c r="E104" s="1">
         <v>104.3753492</v>
       </c>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
+      <c r="F104" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -2846,8 +3256,12 @@
       <c r="E105" s="1">
         <v>104.8726862</v>
       </c>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
+      <c r="F105" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -2869,8 +3283,12 @@
       <c r="E106" s="1">
         <v>105.41266640000001</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
+      <c r="F106" s="1">
+        <v>45.64</v>
+      </c>
+      <c r="G106" s="1">
+        <v>0.13500000000000001</v>
+      </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
